--- a/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
+++ b/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Data#</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Gene</t>
-  </si>
-  <si>
-    <t>Click on delete button in confirm delete message</t>
   </si>
   <si>
     <t>addSequence</t>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>SELENIUMAAA</t>
+  </si>
+  <si>
+    <t>Check vertically align magnifying glass on literature evidence tab details and trait components for genetic feature</t>
+  </si>
+  <si>
+    <t>addGFSymbol</t>
+  </si>
+  <si>
+    <t>AAP55168</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,10 +546,14 @@
     <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="44" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,63 +585,66 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -658,55 +671,58 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
         <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>44</v>
       </c>
       <c r="U2" t="s">
         <v>43</v>
       </c>
       <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>49</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
+++ b/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
@@ -129,7 +129,52 @@
     <t>accessionNoGS</t>
   </si>
   <si>
-    <t>1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
+    <t>TaEXPB23</t>
+  </si>
+  <si>
+    <t>AY260547.prot</t>
+  </si>
+  <si>
+    <t>Avena sativa</t>
+  </si>
+  <si>
+    <t>OurProteinsource</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>SELENIUM_PROTEIN</t>
+  </si>
+  <si>
+    <t>ssaa</t>
+  </si>
+  <si>
+    <t>Test descrition</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>AANV</t>
+  </si>
+  <si>
+    <t>selenium_assession</t>
+  </si>
+  <si>
+    <t>CGCCCGGGCAGGTGTACTATCCACTTAGCACAATAAAGAGAGAAAAACAAGGTAAGTTTAGTGAGTGTTCAAATGGCAGAAAACAAAGAAGAAGATGTTAAGCTTGGAGCTAACAAATTCAGAGAAACACAGCCATTAGGAACAGCTGCTCAAACAGACAAAGATTACAAAGAACCACCACCAGCTCCTTTGTTTGAACCAGGG</t>
+  </si>
+  <si>
+    <t>SELENIUMAAA</t>
+  </si>
+  <si>
+    <t>addGFSymbol</t>
+  </si>
+  <si>
+    <t>AAP55168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
        61 gttgcactcg tctccgttct tctcacgtat ggctgctgcg cccagtcgcc gctcaactac
       121 accggctcct tggccaaatc ctccaaggct agctggtcat ggctccctgc caaggccaca
       181 tggtacggcg cgcctaccgg cgccggtccc gatgacaacg gtggtgcttg cggctacaag
@@ -144,55 +189,10 @@
       721 aggcgccggc tgcagggccc cttctctctc cgcatccgca gcgaatccgg caagacgctg
       781 gtggccaaac aagtcatccc ggccaactgg aggcccgaca cgaactaccg ttccaacgtc
       841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg
-amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
-  </si>
-  <si>
-    <t>TaEXPB23</t>
-  </si>
-  <si>
-    <t>AY260547.prot</t>
-  </si>
-  <si>
-    <t>Avena sativa</t>
-  </si>
-  <si>
-    <t>OurProteinsource</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>SELENIUM_PROTEIN</t>
-  </si>
-  <si>
-    <t>ssaa</t>
-  </si>
-  <si>
-    <t>Test descrition</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>AANV</t>
-  </si>
-  <si>
-    <t>selenium_assession</t>
-  </si>
-  <si>
-    <t>CGCCCGGGCAGGTGTACTATCCACTTAGCACAATAAAGAGAGAAAAACAAGGTAAGTTTAGTGAGTGTTCAAATGGCAGAAAACAAAGAAGAAGATGTTAAGCTTGGAGCTAACAAATTCAGAGAAACACAGCCATTAGGAACAGCTGCTCAAACAGACAAAGATTACAAAGAACCACCACCAGCTCCTTTGTTTGAACCAGGG</t>
-  </si>
-  <si>
-    <t>SELENIUMAAA</t>
-  </si>
-  <si>
-    <t>Check vertically align magnifying glass on literature evidence tab details and trait components for genetic feature</t>
-  </si>
-  <si>
-    <t>addGFSymbol</t>
-  </si>
-  <si>
-    <t>AAP55168</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Delete Button enabled in tabbed view GF. Make sure the GF name appears striked out in search result after we delete the GF </t>
   </si>
 </sst>
 </file>
@@ -534,26 +534,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="11" width="24.85546875" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
+    <col min="13" max="13" width="76.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" customWidth="1"/>
+    <col min="28" max="28" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -635,16 +648,16 @@
       <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AB1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -671,62 +684,63 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
+++ b/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="1665" windowWidth="12285" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="12765" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -536,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
+++ b/src/main/resources/testdata/Check_Delete_Button_Enabled_In_Tabbed_View_GF.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -175,25 +174,10 @@
     <t>AAP55168</t>
   </si>
   <si>
-    <t xml:space="preserve">1 caagtgccac tggctactag tgcaagtatg gctcgggtct ctgccaatgc agttgcactt
-       61 gttgcactcg tctccgttct tctcacgtat ggctgctgcg cccagtcgcc gctcaactac
-      121 accggctcct tggccaaatc ctccaaggct agctggtcat ggctccctgc caaggccaca
-      181 tggtacggcg cgcctaccgg cgccggtccc gatgacaacg gtggtgcttg cggctacaag
-      241 cacactaacc agtacccgtt catgtccatg acttcctgcg gcaacgagcc cctgttcaag
-      301 gacggcatgg gctgcggcgc ctgctaccag atacgatgcg tcaataacaa ggcctgctcc
-      361 ggcaagccgg agacggtcat gatcaccgac atgaactact accctgtggg caagtaccat
-      421 ttcgacctca gcggcacggc gttcggcgcc atggcgaagc ccggccagaa cgacaagctc
-      481 cgccacgccg gcattatcga catccagttc caaagggtgc catgcaatca tccgggcttg
-      541 aacgtgaact tccaggtcga gcggggctcc aaccccaact acctggccgt gctggtggag
-      601 ttcgcgaacc gggagggcac cgtggtgcag atggacctca tggagtcaag gaacggccgc
-      661 ccgacggggt actggacggc gatgcgccac tcgtggggcg ccatctggcg gatggactcc
-      721 aggcgccggc tgcagggccc cttctctctc cgcatccgca gcgaatccgg caagacgctg
-      781 gtggccaaac aagtcatccc ggccaactgg aggcccgaca cgaactaccg ttccaacgtc
-      841 cagttccgtt gattgctccg agcttccgat cgatcgacga agacgttgat taattcgg
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check Delete Button enabled in tabbed view GF. Make sure the GF name appears striked out in search result after we delete the GF </t>
+  </si>
+  <si>
+    <t>1 marvsanava lvalvsvllt ygccaqspln ytgslakssk aswswlpaka twygaptgag 61 pddnggacgy khtnqypfms mtscgneplf kdgmgcgacy qircvnnkac sgkpetvmit 121 dmnyypvgky hfdlsgtafg amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
   </si>
 </sst>
 </file>
@@ -537,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -691,7 +675,7 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
